--- a/scripts/correlation.xlsx
+++ b/scripts/correlation.xlsx
@@ -11,55 +11,89 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$23</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$34</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$34</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>items</t>
   </si>
   <si>
-    <t>cor</t>
+    <t>correlation</t>
+  </si>
+  <si>
+    <t>16_24_soft_lowcal</t>
+  </si>
+  <si>
+    <t>25_34_soft_lowcal</t>
+  </si>
+  <si>
+    <t>female_soft_lowcal</t>
+  </si>
+  <si>
+    <t>all_soft_lowcal</t>
+  </si>
+  <si>
+    <t>over_75_soft_lowcal</t>
+  </si>
+  <si>
+    <t>65_74_soft_lowcal</t>
+  </si>
+  <si>
+    <t>male_soft_lowcal</t>
+  </si>
+  <si>
+    <t>45_54_soft_lowcal</t>
+  </si>
+  <si>
+    <t>55_64_soft_lowcal</t>
+  </si>
+  <si>
+    <t>35_44_soft_lowcal</t>
+  </si>
+  <si>
+    <t>under16_soft_lowcal</t>
+  </si>
+  <si>
+    <t>under16_sugar</t>
+  </si>
+  <si>
+    <t>16_24_sugar</t>
+  </si>
+  <si>
+    <t>35_44_sugar</t>
+  </si>
+  <si>
+    <t>45_54_sugar</t>
+  </si>
+  <si>
+    <t>55_64_sugar</t>
+  </si>
+  <si>
+    <t>25_34_soft</t>
+  </si>
+  <si>
+    <t>16_24_soft</t>
+  </si>
+  <si>
+    <t>female_sugar</t>
+  </si>
+  <si>
+    <t>25_34_sugar</t>
+  </si>
+  <si>
+    <t>all_sugar</t>
+  </si>
+  <si>
+    <t>male_sugar</t>
   </si>
   <si>
     <t>over_75_soft</t>
-  </si>
-  <si>
-    <t>under16_sugar</t>
-  </si>
-  <si>
-    <t>16_24_sugar</t>
-  </si>
-  <si>
-    <t>35_44_sugar</t>
-  </si>
-  <si>
-    <t>45_54_sugar</t>
-  </si>
-  <si>
-    <t>55_64_sugar</t>
-  </si>
-  <si>
-    <t>25_34_soft</t>
-  </si>
-  <si>
-    <t>16_24_soft</t>
-  </si>
-  <si>
-    <t>female_sugar</t>
-  </si>
-  <si>
-    <t>25_34_sugar</t>
-  </si>
-  <si>
-    <t>all_sugar</t>
-  </si>
-  <si>
-    <t>male_sugar</t>
   </si>
   <si>
     <t>65_74_soft</t>
@@ -196,12 +230,13 @@
   <dimension ref="A1:C65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -217,7 +252,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.0013</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -225,7 +260,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>-0.76</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -233,7 +268,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-0.773</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -241,7 +276,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>-0.778</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -249,7 +284,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>-0.78</v>
+        <v>0.9445</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -257,7 +292,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-0.78</v>
+        <v>0.943</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -265,7 +300,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-0.781</v>
+        <v>0.943</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -273,7 +308,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>-0.784</v>
+        <v>0.9417</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -281,7 +316,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>-0.7867</v>
+        <v>0.9415</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -289,7 +324,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>-0.79</v>
+        <v>0.941</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -297,7 +332,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-0.79</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -305,7 +340,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-0.797</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -313,7 +348,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-0.8</v>
+        <v>-0.773</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -321,7 +356,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>-0.8</v>
+        <v>-0.778</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -329,7 +364,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>-0.8</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -337,7 +372,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>-0.803</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -345,7 +380,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>-0.803</v>
+        <v>-0.781</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -353,7 +388,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>-0.809</v>
+        <v>-0.784</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -361,7 +396,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>-0.8097</v>
+        <v>-0.7867</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -369,7 +404,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-0.81</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -377,7 +412,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-0.81</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -385,6 +420,94 @@
         <v>23</v>
       </c>
       <c r="B23" s="0" t="n">
+        <v>-0.797</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>-0.799</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>-0.803</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>-0.803</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>-0.809</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>-0.8097</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>-0.81</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>-0.81</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="0" t="n">
         <v>-0.84</v>
       </c>
     </row>
@@ -394,7 +517,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B23"/>
+  <autoFilter ref="A1:B34"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
